--- a/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151103.xlsx
+++ b/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151103.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>iTree第一届成员会议，分享经验；完成更改用户标识功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成。存在小缺陷（每次更改标识之前需刷新页面，知道原因，但尚未解决）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -724,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -859,7 +863,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="8">
-        <v>42312</v>
+        <v>42311</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -898,7 +902,9 @@
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -954,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="8">
-        <v>42313</v>
+        <v>42312</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
@@ -1045,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="8">
-        <v>42314</v>
+        <v>42313</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -1143,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="8">
-        <v>42315</v>
+        <v>42314</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>

--- a/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151103.xlsx
+++ b/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151103.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,14 +264,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>“将用户信息以默认值的形式显示在文本框，进行编辑操作”未经验证，不知道是否可行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码，进行验证</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
@@ -286,11 +278,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>尚未完成功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于表间关系存在问题，设计不合理。故打算重新梳理关系，构建新的数据表</t>
+    <t>完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度较慢，还未设计到该功能。“将用户信息以默认值的形式显示在文本框，进行编辑操作”未经验证，不知道是否可行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺延</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些数据没有插入。由于表间关系存在问题，设计不合理。故打算重新梳理关系，构建新的数据表。插入数据后返回界面问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新构建表结构；寻找解决方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,15 +454,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -464,12 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,6 +482,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,14 +808,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -881,37 +889,37 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="271.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="353.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -954,14 +962,14 @@
       <c r="F12" s="10"/>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
@@ -983,61 +991,61 @@
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
@@ -1058,14 +1066,14 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
@@ -1087,55 +1095,57 @@
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" s="8" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -1160,14 +1170,14 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" s="8" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
@@ -1189,25 +1199,25 @@
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" s="8" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" s="8" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
@@ -1224,7 +1234,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1236,7 +1246,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1248,7 +1258,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1272,14 +1282,14 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" s="8" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
@@ -1301,31 +1311,33 @@
       <c r="A44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="B44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="B45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -1356,7 +1368,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1365,38 +1377,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D5:F5"/>
@@ -1408,6 +1388,38 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,14 +1438,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -1507,37 +1519,37 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -1574,14 +1586,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1647,11 +1659,11 @@
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1672,14 +1684,14 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1762,14 +1774,14 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1845,12 +1857,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
@@ -1861,15 +1876,12 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
